--- a/Simples Linear Regression/R_Squared/Book1.xlsx
+++ b/Simples Linear Regression/R_Squared/Book1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Notas</t>
   </si>
@@ -104,6 +104,36 @@
   </si>
   <si>
     <t>Vendas</t>
+  </si>
+  <si>
+    <t>Xi - Xmédia Gastos</t>
+  </si>
+  <si>
+    <t>Gasto Propaganda média</t>
+  </si>
+  <si>
+    <t>Vendas média</t>
+  </si>
+  <si>
+    <t>(Xi - Xmédia Gastos) ²</t>
+  </si>
+  <si>
+    <t>Xi - Xmédia Vendas</t>
+  </si>
+  <si>
+    <t>(Xi - Xmédia Vendas) ²</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Gastos</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Vendas</t>
+  </si>
+  <si>
+    <t>Variância Gastos</t>
+  </si>
+  <si>
+    <t>Variância Vendas</t>
   </si>
 </sst>
 </file>
@@ -130,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +179,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,7 +231,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,7 +315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -383,11 +450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71230016"/>
-        <c:axId val="71230592"/>
+        <c:axId val="97832896"/>
+        <c:axId val="97833472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71230016"/>
+        <c:axId val="97832896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -479,12 +545,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71230592"/>
+        <c:crossAx val="97833472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71230592"/>
+        <c:axId val="97833472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -532,7 +598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -579,7 +644,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71230016"/>
+        <c:crossAx val="97832896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -680,14 +745,21 @@
             </a:ln>
           </c:spPr>
           <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.41289829396325461"/>
-                  <c:y val="-1.424795858850977E-2"/>
+                  <c:x val="1.4442925173275497E-2"/>
+                  <c:y val="0.19326751401697301"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -793,13 +865,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94056384"/>
-        <c:axId val="94055808"/>
+        <c:axId val="121932032"/>
+        <c:axId val="121931456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94056384"/>
+        <c:axId val="121932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -814,7 +887,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Gasto em Propaganda</a:t>
+                  <a:t>Gastos em Propaganda</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -826,12 +899,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94055808"/>
+        <c:crossAx val="121931456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94055808"/>
+        <c:axId val="121931456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94056384"/>
+        <c:crossAx val="121932032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,7 +970,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A76992-AB3D-FCD9-9E6F-63624BFE6182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04A76992-AB3D-FCD9-9E6F-63624BFE6182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,20 +995,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1242,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1450,247 +1523,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="1">
         <v>1150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="9">
+        <f>B2-$L$3</f>
+        <v>-13.25</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2-$L$4</f>
+        <v>-103.25</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2^2</f>
+        <v>10660.5625</v>
+      </c>
+      <c r="G2" s="9">
+        <f>D2^2</f>
+        <v>175.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>45</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="9">
+        <f>B3-$L$3</f>
+        <v>-28.25</v>
+      </c>
+      <c r="E3" s="9">
+        <f>C3-$L$4</f>
+        <v>-353.25</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3^2</f>
+        <v>124785.5625</v>
+      </c>
+      <c r="G3" s="9">
+        <f>D3^2</f>
+        <v>798.0625</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="9">
+        <f>AVERAGE(B2:B13)</f>
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>55</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="9">
+        <f>B4-$L$3</f>
+        <v>-18.25</v>
+      </c>
+      <c r="E4" s="9">
+        <f>C4-$L$4</f>
+        <v>-253.25</v>
+      </c>
+      <c r="F4" s="9">
+        <f>E4^2</f>
+        <v>64135.5625</v>
+      </c>
+      <c r="G4" s="9">
+        <f>D4^2</f>
+        <v>333.0625</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="9">
+        <f>AVERAGE(C2:C13)</f>
+        <v>1253.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>66</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="1">
         <v>1150</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="9">
+        <f>B5-$L$3</f>
+        <v>-7.25</v>
+      </c>
+      <c r="E5" s="9">
+        <f>C5-$L$4</f>
+        <v>-103.25</v>
+      </c>
+      <c r="F5" s="9">
+        <f>E5^2</f>
+        <v>10660.5625</v>
+      </c>
+      <c r="G5" s="9">
+        <f>D5^2</f>
+        <v>52.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>70</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="9">
+        <f>B6-$L$3</f>
+        <v>-3.25</v>
+      </c>
+      <c r="E6" s="9">
+        <f>C6-$L$4</f>
+        <v>-3.25</v>
+      </c>
+      <c r="F6" s="9">
+        <f>E6^2</f>
+        <v>10.5625</v>
+      </c>
+      <c r="G6" s="9">
+        <f>D6^2</f>
+        <v>10.5625</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="1">
+        <f>F14/12</f>
+        <v>26686.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>90</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="9">
+        <f>B7-$L$3</f>
+        <v>16.75</v>
+      </c>
+      <c r="E7" s="9">
+        <f>C7-$L$4</f>
+        <v>146.75</v>
+      </c>
+      <c r="F7" s="9">
+        <f>E7^2</f>
+        <v>21535.5625</v>
+      </c>
+      <c r="G7" s="9">
+        <f>D7^2</f>
+        <v>280.5625</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="1">
+        <f>G14/12</f>
+        <v>241.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>95</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="1">
         <v>1450</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="9">
+        <f>B8-$L$3</f>
+        <v>21.75</v>
+      </c>
+      <c r="E8" s="9">
+        <f>C8-$L$4</f>
+        <v>196.75</v>
+      </c>
+      <c r="F8" s="9">
+        <f>E8^2</f>
+        <v>38710.5625</v>
+      </c>
+      <c r="G8" s="9">
+        <f>D8^2</f>
+        <v>473.0625</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>77</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="9">
+        <f>B9-$L$3</f>
+        <v>3.75</v>
+      </c>
+      <c r="E9" s="9">
+        <f>C9-$L$4</f>
+        <v>46.75</v>
+      </c>
+      <c r="F9" s="9">
+        <f>E9^2</f>
+        <v>2185.5625</v>
+      </c>
+      <c r="G9" s="9">
+        <f>D9^2</f>
+        <v>14.0625</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18">
+        <f>SQRT(L7)</f>
+        <v>15.530212490497354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <v>85</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="1">
         <v>1345</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="9">
+        <f>B10-$L$3</f>
+        <v>11.75</v>
+      </c>
+      <c r="E10" s="9">
+        <f>C10-$L$4</f>
+        <v>91.75</v>
+      </c>
+      <c r="F10" s="9">
+        <f>E10^2</f>
+        <v>8418.0625</v>
+      </c>
+      <c r="G10" s="9">
+        <f>D10^2</f>
+        <v>138.0625</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18">
+        <f>SQRT(L6)</f>
+        <v>163.35907535242723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>86</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="1">
         <v>1344</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="9">
+        <f>B11-$L$3</f>
+        <v>12.75</v>
+      </c>
+      <c r="E11" s="9">
+        <f>C11-$L$4</f>
+        <v>90.75</v>
+      </c>
+      <c r="F11" s="9">
+        <f>E11^2</f>
+        <v>8235.5625</v>
+      </c>
+      <c r="G11" s="9">
+        <f>D11^2</f>
+        <v>162.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="9">
+        <f>B12-$L$3</f>
+        <v>-13.25</v>
+      </c>
+      <c r="E12" s="9">
+        <f>C12-$L$4</f>
+        <v>96.75</v>
+      </c>
+      <c r="F12" s="9">
+        <f>E12^2</f>
+        <v>9360.5625</v>
+      </c>
+      <c r="G12" s="9">
+        <f>D12^2</f>
+        <v>175.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>90</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="9">
+        <f>B13-$L$3</f>
+        <v>16.75</v>
+      </c>
+      <c r="E13" s="9">
+        <f>C13-$L$4</f>
+        <v>146.75</v>
+      </c>
+      <c r="F13" s="9">
+        <f>E13^2</f>
+        <v>21535.5625</v>
+      </c>
+      <c r="G13" s="9">
+        <f>D13^2</f>
+        <v>280.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="12">
         <f>SUM(B2:B13)</f>
         <v>879</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="12">
         <f>SUM(C2:C13)</f>
         <v>15039</v>
       </c>
+      <c r="D14" s="17">
+        <f>SUM(D2:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <f>SUM(E2:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>SUM(F2:F13)</f>
+        <v>320234.25</v>
+      </c>
+      <c r="G14" s="17">
+        <f>SUM(G2:G13)</f>
+        <v>2894.25</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="9">
-        <v>60</v>
-      </c>
-      <c r="D24" s="9">
-        <v>45</v>
-      </c>
-      <c r="E24" s="9">
-        <v>55</v>
-      </c>
-      <c r="F24" s="9">
-        <v>66</v>
-      </c>
-      <c r="G24" s="9">
-        <v>70</v>
-      </c>
-      <c r="H24" s="9">
-        <v>90</v>
-      </c>
-      <c r="I24" s="9">
-        <v>95</v>
-      </c>
-      <c r="J24" s="9">
-        <v>77</v>
-      </c>
-      <c r="K24" s="9">
-        <v>85</v>
-      </c>
-      <c r="L24" s="9">
-        <v>86</v>
-      </c>
-      <c r="M24" s="9">
-        <v>60</v>
-      </c>
-      <c r="N24" s="9">
-        <v>90</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="9">
-        <v>1150</v>
-      </c>
-      <c r="D25" s="9">
-        <v>900</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1150</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1250</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1450</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1300</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1345</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1344</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1350</v>
-      </c>
-      <c r="N25" s="9">
-        <v>1400</v>
-      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>